--- a/data/donations_spending_by_category.xlsx
+++ b/data/donations_spending_by_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12324.19</v>
+        <v>31592.24</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3109.96</v>
+        <v>4726.389999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>905.05</v>
+        <v>3185.7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.58</v>
+        <v>548.24</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242.69</v>
+        <v>365.73</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,13 +518,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>software &amp; apps</t>
+          <t>--</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>333.35</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>85</v>
       </c>
     </row>

--- a/data/donations_spending_by_category.xlsx
+++ b/data/donations_spending_by_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31592.24</v>
+        <v>1285003.96</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1000 Drones for Ukraine</t>
+          <t>Victory Drones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4726.389999999999</v>
+        <v>354136.55</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mobile Shower Units</t>
+          <t>1000 Drones for Ukraine</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3185.7</v>
+        <v>18348.93</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Victory Drones</t>
+          <t>Mobile Shower Units</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.24</v>
+        <v>4067.7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365.73</v>
+        <v>1287.09</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -531,14 +531,170 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Veteranius</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>217.76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>571000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>85</v>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>390.04</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bank fees &amp; service charges</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>drone purchases</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>264502.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>events participation expenses</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>supplies &amp; materials</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>car purchases</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6474.59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lodging</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1947.06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>maling and delivery</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>supplies and materials</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8870.139999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>legal fees</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>transportation and parking</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1216.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/donations_spending_by_category.xlsx
+++ b/data/donations_spending_by_category.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285003.96</v>
+        <v>1288654.33</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354136.55</v>
+        <v>354787.37</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18348.93</v>
+        <v>19882.9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4067.7</v>
+        <v>6533.7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287.09</v>
+        <v>1401.27</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.35</v>
+        <v>281.83</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>

--- a/data/donations_spending_by_category.xlsx
+++ b/data/donations_spending_by_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,40 +453,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>Victory Drones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1288654.33</v>
+        <v>354787.37</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Victory Drones</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354787.37</v>
+        <v>152332.36</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10207.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1000 Drones for Ukraine</t>
+          <t>1000 Drones For Ukraine</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>19882.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flight to Recovery</t>
+          <t>Flight To Recovery</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -544,157 +544,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>grants</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>571000</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Drone Purchases</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>390.04</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>bank fees &amp; service charges</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>45.38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>drone purchases</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>264502.3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>events participation expenses</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>supplies &amp; materials</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>car purchases</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6474.59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>lodging</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1947.06</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>maling and delivery</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>supplies and materials</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8870.139999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>legal fees</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>transportation and parking</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1216.49</v>
+        <v>169502.3</v>
       </c>
     </row>
   </sheetData>
